--- a/cp1/Andrievich_fb-92_cp1/character_frequency.xlsx
+++ b/cp1/Andrievich_fb-92_cp1/character_frequency.xlsx
@@ -447,17 +447,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1093558874939283</v>
+        <v>0.1106494470620889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>и</t>
+          <t>а</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09201657879715083</v>
+        <v>0.08638003738642785</v>
       </c>
     </row>
     <row r="4">
@@ -467,57 +467,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08107513995894301</v>
+        <v>0.08129876036236076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>а</t>
+          <t>и</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08022244519530433</v>
+        <v>0.06843923367855029</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>т</t>
+          <t>н</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07400539626374328</v>
+        <v>0.06412374305692568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>н</t>
+          <t>т</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06551390371108361</v>
+        <v>0.0602998271128515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>с</t>
+          <t>л</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05555279793793233</v>
+        <v>0.05254331374837396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>л</t>
+          <t>с</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04709144220644077</v>
+        <v>0.05068904055992696</v>
       </c>
     </row>
     <row r="10">
@@ -527,57 +527,57 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04615188248767049</v>
+        <v>0.04746538076973238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>к</t>
+          <t>в</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04095062170489316</v>
+        <v>0.04709419172750043</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>в</t>
+          <t>к</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03650455420550475</v>
+        <v>0.03657884088697461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>п</t>
+          <t>у</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03071296627866987</v>
+        <v>0.03005460826179863</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>з</t>
+          <t>м</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02963158622499087</v>
+        <v>0.03001280769397972</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>м</t>
+          <t>п</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0253876127028474</v>
+        <v>0.02843107420771204</v>
       </c>
     </row>
     <row r="16">
@@ -587,27 +587,27 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02329576276294376</v>
+        <v>0.02811004584686278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>я</t>
+          <t>г</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02167901094498435</v>
+        <v>0.01915302017462605</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>г</t>
+          <t>я</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02021648874123816</v>
+        <v>0.01906941903898823</v>
       </c>
     </row>
     <row r="19">
@@ -617,77 +617,77 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01673657227341542</v>
+        <v>0.01808794170660014</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>й</t>
+          <t>з</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01407921374806327</v>
+        <v>0.01777694548202743</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ю</t>
+          <t>ы</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.013831028161973</v>
+        <v>0.0172970749634663</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>б</t>
+          <t>ч</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01261491879013072</v>
+        <v>0.0159009359983146</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>у</t>
+          <t>б</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01212032037213656</v>
+        <v>0.01548627436555098</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ж</t>
+          <t>й</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01050888681673622</v>
+        <v>0.01172255123913603</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ч</t>
+          <t>ж</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009952242002219489</v>
+        <v>0.00901053039904494</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ы</t>
+          <t>ш</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009817512684056203</v>
+        <v>0.008731302606014599</v>
       </c>
     </row>
     <row r="27">
@@ -697,17 +697,17 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.006947423656340965</v>
+        <v>0.008228023769474884</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ш</t>
+          <t>ю</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.004323747460529628</v>
+        <v>0.005280247726885122</v>
       </c>
     </row>
     <row r="29">
@@ -717,37 +717,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004146472041893727</v>
+        <v>0.003538000060192818</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>э</t>
+          <t>ц</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002772587547465493</v>
+        <v>0.003317293062108956</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>ф</t>
+          <t>э</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001396930298850901</v>
+        <v>0.003071505723333746</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ц</t>
+          <t>ф</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001388066527919106</v>
+        <v>0.00215858132216868</v>
       </c>
     </row>
   </sheetData>
